--- a/tables/table_overview_2019_2021.xlsx
+++ b/tables/table_overview_2019_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,29 +506,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Admissions_Male</t>
+          <t>Admissions_S</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-19.13823905272274</v>
+        <v>-28.1671270252006</v>
       </c>
       <c r="D3" t="n">
-        <v>-19.43846039143677</v>
+        <v>-28.59091262747078</v>
       </c>
       <c r="E3" t="n">
-        <v>-18.8368989065398</v>
+        <v>-27.74082641758168</v>
       </c>
       <c r="F3" t="n">
-        <v>174880</v>
+        <v>80403</v>
       </c>
       <c r="G3" t="n">
-        <v>136027</v>
+        <v>50548</v>
       </c>
       <c r="H3" t="n">
-        <v>115011</v>
+        <v>42771</v>
       </c>
       <c r="I3" t="n">
-        <v>-34.23433211344922</v>
+        <v>-46.80422372299541</v>
       </c>
     </row>
     <row r="4">
@@ -537,29 +537,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Admissions_Female</t>
+          <t>Admissions_N</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-23.1385116067438</v>
+        <v>-18.16867401333685</v>
       </c>
       <c r="D4" t="n">
-        <v>-23.43130097259987</v>
+        <v>-18.96363834506861</v>
       </c>
       <c r="E4" t="n">
-        <v>-22.84460265006476</v>
+        <v>-17.3659111048203</v>
       </c>
       <c r="F4" t="n">
-        <v>178711</v>
+        <v>25231</v>
       </c>
       <c r="G4" t="n">
-        <v>123003</v>
+        <v>19415</v>
       </c>
       <c r="H4" t="n">
-        <v>107699</v>
+        <v>17040</v>
       </c>
       <c r="I4" t="n">
-        <v>-39.73566260610707</v>
+        <v>-32.46403234116761</v>
       </c>
     </row>
     <row r="5">
@@ -568,29 +568,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Admissions_White</t>
+          <t>Admissions_NE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-25.10104000054525</v>
+        <v>-22.2471272722365</v>
       </c>
       <c r="D5" t="n">
-        <v>-25.42849150241909</v>
+        <v>-22.67344764073429</v>
       </c>
       <c r="E5" t="n">
-        <v>-24.77215062396242</v>
+        <v>-21.81845649432499</v>
       </c>
       <c r="F5" t="n">
-        <v>137658</v>
+        <v>86787</v>
       </c>
       <c r="G5" t="n">
-        <v>96975</v>
+        <v>55786</v>
       </c>
       <c r="H5" t="n">
-        <v>78203</v>
+        <v>54132</v>
       </c>
       <c r="I5" t="n">
-        <v>-43.19037033808424</v>
+        <v>-37.62660306267068</v>
       </c>
     </row>
     <row r="6">
@@ -599,29 +599,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Admissions_Black</t>
+          <t>Admissions_SE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-14.10727614659183</v>
+        <v>-16.23415701798238</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.19193293998407</v>
+        <v>-16.58129980911076</v>
       </c>
       <c r="E6" t="n">
-        <v>-13.00874708373</v>
+        <v>-15.88556960931432</v>
       </c>
       <c r="F6" t="n">
-        <v>13331</v>
+        <v>133712</v>
       </c>
       <c r="G6" t="n">
-        <v>13075</v>
+        <v>111833</v>
       </c>
       <c r="H6" t="n">
-        <v>9686</v>
+        <v>93840</v>
       </c>
       <c r="I6" t="n">
-        <v>-27.34228489985748</v>
+        <v>-29.81931315065215</v>
       </c>
     </row>
     <row r="7">
@@ -630,29 +630,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Admissions_Brown</t>
+          <t>Admissions_CO</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-18.01331155778665</v>
+        <v>-25.83120947056465</v>
       </c>
       <c r="D7" t="n">
-        <v>-18.38947791074228</v>
+        <v>-26.54815337220595</v>
       </c>
       <c r="E7" t="n">
-        <v>-17.63541134599183</v>
+        <v>-25.10726767054913</v>
       </c>
       <c r="F7" t="n">
-        <v>114226</v>
+        <v>27458</v>
       </c>
       <c r="G7" t="n">
-        <v>85974</v>
+        <v>21448</v>
       </c>
       <c r="H7" t="n">
-        <v>77673</v>
+        <v>14927</v>
       </c>
       <c r="I7" t="n">
-        <v>-32.00059531105002</v>
+        <v>-45.63697283123316</v>
       </c>
     </row>
     <row r="8">
@@ -661,29 +661,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Admissions_Yellow</t>
+          <t>Deaths</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-38.88070332344864</v>
+        <v>-10.09767505889375</v>
       </c>
       <c r="D8" t="n">
-        <v>-39.86076293828526</v>
+        <v>-10.63740134580604</v>
       </c>
       <c r="E8" t="n">
-        <v>-37.88467215833033</v>
+        <v>-9.554688969008286</v>
       </c>
       <c r="F8" t="n">
-        <v>11868</v>
+        <v>59337</v>
       </c>
       <c r="G8" t="n">
-        <v>8910</v>
+        <v>52464</v>
       </c>
       <c r="H8" t="n">
-        <v>4036</v>
+        <v>48017</v>
       </c>
       <c r="I8" t="n">
-        <v>-65.99258510279743</v>
+        <v>-19.07747274044862</v>
       </c>
     </row>
     <row r="9">
@@ -692,29 +692,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Admissions_Indigenous</t>
+          <t>Deaths_S</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-17.150385505378</v>
+        <v>-10.15303210761384</v>
       </c>
       <c r="D9" t="n">
-        <v>-21.10316827395349</v>
+        <v>-11.39842282415313</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.99956573995831</v>
+        <v>-8.890136081504673</v>
       </c>
       <c r="F9" t="n">
-        <v>1009</v>
+        <v>11341</v>
       </c>
       <c r="G9" t="n">
-        <v>742</v>
+        <v>9182</v>
       </c>
       <c r="H9" t="n">
-        <v>703</v>
+        <v>9222</v>
       </c>
       <c r="I9" t="n">
-        <v>-30.32705649157582</v>
+        <v>-18.68441936337184</v>
       </c>
     </row>
     <row r="10">
@@ -723,29 +723,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Admissions_NoInfo</t>
+          <t>Deaths_N</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-17.49009967029581</v>
+        <v>-8.956549140454683</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.95827435288047</v>
+        <v>-11.27988586455778</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.01925332848306</v>
+        <v>-6.572370592756482</v>
       </c>
       <c r="F10" t="n">
-        <v>75499</v>
+        <v>3138</v>
       </c>
       <c r="G10" t="n">
-        <v>53354</v>
+        <v>2926</v>
       </c>
       <c r="H10" t="n">
-        <v>52409</v>
+        <v>2597</v>
       </c>
       <c r="I10" t="n">
-        <v>-30.58318653227195</v>
+        <v>-17.24028043339707</v>
       </c>
     </row>
     <row r="11">
@@ -754,29 +754,29 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Admissions_S</t>
+          <t>Deaths_NE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-28.1671270252006</v>
+        <v>-15.68488354972273</v>
       </c>
       <c r="D11" t="n">
-        <v>-28.59091262747078</v>
+        <v>-16.79768006702258</v>
       </c>
       <c r="E11" t="n">
-        <v>-27.74082641758168</v>
+        <v>-14.55720384058506</v>
       </c>
       <c r="F11" t="n">
-        <v>80403</v>
+        <v>13420</v>
       </c>
       <c r="G11" t="n">
-        <v>50548</v>
+        <v>10030</v>
       </c>
       <c r="H11" t="n">
-        <v>42771</v>
+        <v>9671</v>
       </c>
       <c r="I11" t="n">
-        <v>-46.80422372299541</v>
+        <v>-27.93591654247392</v>
       </c>
     </row>
     <row r="12">
@@ -785,29 +785,29 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Admissions_N</t>
+          <t>Deaths_SE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-18.16867401333685</v>
+        <v>-7.126543441457256</v>
       </c>
       <c r="D12" t="n">
-        <v>-18.96363834506861</v>
+        <v>-7.924938205319243</v>
       </c>
       <c r="E12" t="n">
-        <v>-17.3659111048203</v>
+        <v>-6.321225693385013</v>
       </c>
       <c r="F12" t="n">
-        <v>25231</v>
+        <v>27352</v>
       </c>
       <c r="G12" t="n">
-        <v>19415</v>
+        <v>26626</v>
       </c>
       <c r="H12" t="n">
-        <v>17040</v>
+        <v>23535</v>
       </c>
       <c r="I12" t="n">
-        <v>-32.46403234116761</v>
+        <v>-13.95510383152969</v>
       </c>
     </row>
     <row r="13">
@@ -816,29 +816,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Admissions_NE</t>
+          <t>Deaths_CO</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-22.2471272722365</v>
+        <v>-14.17387454706715</v>
       </c>
       <c r="D13" t="n">
-        <v>-22.67344764073429</v>
+        <v>-16.14690446694382</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.81845649432499</v>
+        <v>-12.15442001948835</v>
       </c>
       <c r="F13" t="n">
-        <v>86787</v>
+        <v>4086</v>
       </c>
       <c r="G13" t="n">
-        <v>55786</v>
+        <v>3700</v>
       </c>
       <c r="H13" t="n">
-        <v>54132</v>
+        <v>2992</v>
       </c>
       <c r="I13" t="n">
-        <v>-37.62660306267068</v>
+        <v>-26.77435144395497</v>
       </c>
     </row>
     <row r="14">
@@ -847,29 +847,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Admissions_SE</t>
+          <t>Admissions_uti</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-16.23415701798238</v>
+        <v>-1.518104767333073</v>
       </c>
       <c r="D14" t="n">
-        <v>-16.58129980911076</v>
+        <v>-2.411281796468723</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.88556960931432</v>
+        <v>-0.6167529694325435</v>
       </c>
       <c r="F14" t="n">
-        <v>133712</v>
+        <v>22602</v>
       </c>
       <c r="G14" t="n">
-        <v>111833</v>
+        <v>24930</v>
       </c>
       <c r="H14" t="n">
-        <v>93840</v>
+        <v>21894</v>
       </c>
       <c r="I14" t="n">
-        <v>-29.81931315065215</v>
+        <v>-3.132466153437749</v>
       </c>
     </row>
     <row r="15">
@@ -878,29 +878,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Admissions_CO</t>
+          <t>Admissions_uti_S</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-25.83120947056465</v>
+        <v>-11.71309013581426</v>
       </c>
       <c r="D15" t="n">
-        <v>-26.54815337220595</v>
+        <v>-13.49506029576882</v>
       </c>
       <c r="E15" t="n">
-        <v>-25.10726767054913</v>
+        <v>-9.894412041470913</v>
       </c>
       <c r="F15" t="n">
-        <v>27458</v>
+        <v>5139</v>
       </c>
       <c r="G15" t="n">
-        <v>21448</v>
+        <v>4846</v>
       </c>
       <c r="H15" t="n">
-        <v>14927</v>
+        <v>3982</v>
       </c>
       <c r="I15" t="n">
-        <v>-45.63697283123316</v>
+        <v>-22.51410780307453</v>
       </c>
     </row>
     <row r="16">
@@ -909,29 +909,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Admissions_Public</t>
+          <t>Admissions_uti_N</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-15.59275169795136</v>
+        <v>-2.457213257418811</v>
       </c>
       <c r="D16" t="n">
-        <v>-15.9159597407992</v>
+        <v>-6.758515562551937</v>
       </c>
       <c r="E16" t="n">
-        <v>-15.26830128569976</v>
+        <v>2.04251147343788</v>
       </c>
       <c r="F16" t="n">
-        <v>158033</v>
+        <v>953</v>
       </c>
       <c r="G16" t="n">
-        <v>125735</v>
+        <v>975</v>
       </c>
       <c r="H16" t="n">
-        <v>113366</v>
+        <v>906</v>
       </c>
       <c r="I16" t="n">
-        <v>-28.26434985098049</v>
+        <v>-4.931794333683106</v>
       </c>
     </row>
     <row r="17">
@@ -940,29 +940,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Admissions_Private</t>
+          <t>Admissions_uti_NE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-32.20611370277104</v>
+        <v>0.6720793300621919</v>
       </c>
       <c r="D17" t="n">
-        <v>-32.975618386363</v>
+        <v>-1.608674069927141</v>
       </c>
       <c r="E17" t="n">
-        <v>-31.42777436164381</v>
+        <v>3.005701578218711</v>
       </c>
       <c r="F17" t="n">
-        <v>22853</v>
+        <v>3648</v>
       </c>
       <c r="G17" t="n">
-        <v>13963</v>
+        <v>3628</v>
       </c>
       <c r="H17" t="n">
-        <v>10812</v>
+        <v>3697</v>
       </c>
       <c r="I17" t="n">
-        <v>-52.68892486763226</v>
+        <v>1.343201754385965</v>
       </c>
     </row>
     <row r="18">
@@ -971,29 +971,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Admissions_ONG</t>
+          <t>Admissions_uti_SE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-26.01186473055945</v>
+        <v>4.735966603847519</v>
       </c>
       <c r="D18" t="n">
-        <v>-26.30689387095769</v>
+        <v>3.392345108759942</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.7156544458418</v>
+        <v>6.097048953703021</v>
       </c>
       <c r="F18" t="n">
-        <v>169922</v>
+        <v>10341</v>
       </c>
       <c r="G18" t="n">
-        <v>112394</v>
+        <v>12852</v>
       </c>
       <c r="H18" t="n">
-        <v>95221</v>
+        <v>11408</v>
       </c>
       <c r="I18" t="n">
-        <v>-43.96193547627735</v>
+        <v>10.31815104922154</v>
       </c>
     </row>
     <row r="19">
@@ -1002,29 +1002,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Deaths</t>
+          <t>Admissions_uti_CO</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-10.09767505889375</v>
+        <v>-12.39047885272905</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.63740134580604</v>
+        <v>-14.87016086674658</v>
       </c>
       <c r="E19" t="n">
-        <v>-9.554688969008286</v>
+        <v>-9.838568076702259</v>
       </c>
       <c r="F19" t="n">
-        <v>59337</v>
+        <v>2521</v>
       </c>
       <c r="G19" t="n">
-        <v>52464</v>
+        <v>2629</v>
       </c>
       <c r="H19" t="n">
-        <v>48017</v>
+        <v>1901</v>
       </c>
       <c r="I19" t="n">
-        <v>-19.07747274044862</v>
+        <v>-24.59341531138437</v>
       </c>
     </row>
     <row r="20">
@@ -1033,29 +1033,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Deaths_Male</t>
+          <t>Admissions_non_uti</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-8.932742556173745</v>
+        <v>-22.72140278834298</v>
       </c>
       <c r="D20" t="n">
-        <v>-9.683831399709053</v>
+        <v>-22.93659209094569</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.175407494938703</v>
+        <v>-22.50561259827355</v>
       </c>
       <c r="F20" t="n">
-        <v>30611</v>
+        <v>330989</v>
       </c>
       <c r="G20" t="n">
-        <v>28413</v>
+        <v>234100</v>
       </c>
       <c r="H20" t="n">
-        <v>25355</v>
+        <v>200816</v>
       </c>
       <c r="I20" t="n">
-        <v>-17.17029825879586</v>
+        <v>-39.32849732166326</v>
       </c>
     </row>
     <row r="21">
@@ -1064,29 +1064,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Deaths_Female</t>
+          <t>Admissions_non_uti_S</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-11.38487238163742</v>
+        <v>-29.48917261931406</v>
       </c>
       <c r="D21" t="n">
-        <v>-12.15877063798931</v>
+        <v>-29.92424090038178</v>
       </c>
       <c r="E21" t="n">
-        <v>-10.60415593164759</v>
+        <v>-29.05140319862798</v>
       </c>
       <c r="F21" t="n">
-        <v>28726</v>
+        <v>75264</v>
       </c>
       <c r="G21" t="n">
-        <v>24051</v>
+        <v>45702</v>
       </c>
       <c r="H21" t="n">
-        <v>22662</v>
+        <v>38789</v>
       </c>
       <c r="I21" t="n">
-        <v>-21.10979600362041</v>
+        <v>-48.46274447278912</v>
       </c>
     </row>
     <row r="22">
@@ -1095,29 +1095,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Deaths_White</t>
+          <t>Admissions_non_uti_N</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-12.96759377312751</v>
+        <v>-18.86701301675281</v>
       </c>
       <c r="D22" t="n">
-        <v>-13.79296525948155</v>
+        <v>-19.67455216664242</v>
       </c>
       <c r="E22" t="n">
-        <v>-12.13431993759121</v>
+        <v>-18.05135540009837</v>
       </c>
       <c r="F22" t="n">
-        <v>24582</v>
+        <v>24278</v>
       </c>
       <c r="G22" t="n">
-        <v>20826</v>
+        <v>18440</v>
       </c>
       <c r="H22" t="n">
-        <v>18668</v>
+        <v>16134</v>
       </c>
       <c r="I22" t="n">
-        <v>-24.05825400699699</v>
+        <v>-33.54477304555565</v>
       </c>
     </row>
     <row r="23">
@@ -1126,29 +1126,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Deaths_Black</t>
+          <t>Admissions_non_uti_NE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.989333035742425</v>
+        <v>-23.45225488818079</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3027528379289324</v>
+        <v>-23.88501403388312</v>
       </c>
       <c r="E23" t="n">
-        <v>5.747872506408025</v>
+        <v>-23.01703524832198</v>
       </c>
       <c r="F23" t="n">
-        <v>2446</v>
+        <v>83139</v>
       </c>
       <c r="G23" t="n">
-        <v>3197</v>
+        <v>52158</v>
       </c>
       <c r="H23" t="n">
-        <v>2608</v>
+        <v>50435</v>
       </c>
       <c r="I23" t="n">
-        <v>6.623058053965658</v>
+        <v>-39.33653279447672</v>
       </c>
     </row>
     <row r="24">
@@ -1157,29 +1157,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Deaths_Brown</t>
+          <t>Admissions_non_uti_SE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-9.314927693466091</v>
+        <v>-18.36083853726742</v>
       </c>
       <c r="D24" t="n">
-        <v>-10.30955673616882</v>
+        <v>-18.71867979773174</v>
       </c>
       <c r="E24" t="n">
-        <v>-8.309268635785305</v>
+        <v>-18.00142187956088</v>
       </c>
       <c r="F24" t="n">
-        <v>17562</v>
+        <v>123371</v>
       </c>
       <c r="G24" t="n">
-        <v>15576</v>
+        <v>98981</v>
       </c>
       <c r="H24" t="n">
-        <v>14464</v>
+        <v>82432</v>
       </c>
       <c r="I24" t="n">
-        <v>-17.6403598678966</v>
+        <v>-33.18364931791102</v>
       </c>
     </row>
     <row r="25">
@@ -1188,710 +1188,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Deaths_Yellow</t>
+          <t>Admissions_non_uti_CO</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-29.19917468949998</v>
+        <v>-27.38461244284944</v>
       </c>
       <c r="D25" t="n">
-        <v>-32.13350554908333</v>
+        <v>-28.13100675098148</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.13797271828541</v>
+        <v>-26.63046646827511</v>
       </c>
       <c r="F25" t="n">
-        <v>1417</v>
+        <v>24937</v>
       </c>
       <c r="G25" t="n">
-        <v>1347</v>
+        <v>18819</v>
       </c>
       <c r="H25" t="n">
-        <v>647</v>
+        <v>13026</v>
       </c>
       <c r="I25" t="n">
-        <v>-54.34015525758645</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Deaths_Indigenous</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>6.062407652041668</v>
-      </c>
-      <c r="D26" t="n">
-        <v>-8.752544411658969</v>
-      </c>
-      <c r="E26" t="n">
-        <v>23.28271779651923</v>
-      </c>
-      <c r="F26" t="n">
-        <v>79</v>
-      </c>
-      <c r="G26" t="n">
-        <v>87</v>
-      </c>
-      <c r="H26" t="n">
-        <v>89</v>
-      </c>
-      <c r="I26" t="n">
-        <v>12.65822784810127</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Deaths_NoInfo</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>-6.841759200322961</v>
-      </c>
-      <c r="D27" t="n">
-        <v>-8.010796667694587</v>
-      </c>
-      <c r="E27" t="n">
-        <v>-5.65786511336327</v>
-      </c>
-      <c r="F27" t="n">
-        <v>13251</v>
-      </c>
-      <c r="G27" t="n">
-        <v>11431</v>
-      </c>
-      <c r="H27" t="n">
-        <v>11541</v>
-      </c>
-      <c r="I27" t="n">
-        <v>-12.90468643875934</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Deaths_S</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>-10.15303210761384</v>
-      </c>
-      <c r="D28" t="n">
-        <v>-11.39842282415313</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-8.890136081504673</v>
-      </c>
-      <c r="F28" t="n">
-        <v>11341</v>
-      </c>
-      <c r="G28" t="n">
-        <v>9182</v>
-      </c>
-      <c r="H28" t="n">
-        <v>9222</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-18.68441936337184</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Deaths_N</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>-8.956549140454683</v>
-      </c>
-      <c r="D29" t="n">
-        <v>-11.27988586455778</v>
-      </c>
-      <c r="E29" t="n">
-        <v>-6.572370592756482</v>
-      </c>
-      <c r="F29" t="n">
-        <v>3138</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2926</v>
-      </c>
-      <c r="H29" t="n">
-        <v>2597</v>
-      </c>
-      <c r="I29" t="n">
-        <v>-17.24028043339707</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Deaths_NE</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>-15.68488354972273</v>
-      </c>
-      <c r="D30" t="n">
-        <v>-16.79768006702258</v>
-      </c>
-      <c r="E30" t="n">
-        <v>-14.55720384058506</v>
-      </c>
-      <c r="F30" t="n">
-        <v>13420</v>
-      </c>
-      <c r="G30" t="n">
-        <v>10030</v>
-      </c>
-      <c r="H30" t="n">
-        <v>9671</v>
-      </c>
-      <c r="I30" t="n">
-        <v>-27.93591654247392</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Deaths_SE</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>-7.126543441457256</v>
-      </c>
-      <c r="D31" t="n">
-        <v>-7.924938205319243</v>
-      </c>
-      <c r="E31" t="n">
-        <v>-6.321225693385013</v>
-      </c>
-      <c r="F31" t="n">
-        <v>27352</v>
-      </c>
-      <c r="G31" t="n">
-        <v>26626</v>
-      </c>
-      <c r="H31" t="n">
-        <v>23535</v>
-      </c>
-      <c r="I31" t="n">
-        <v>-13.95510383152969</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Deaths_CO</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>-14.17387454706715</v>
-      </c>
-      <c r="D32" t="n">
-        <v>-16.14690446694382</v>
-      </c>
-      <c r="E32" t="n">
-        <v>-12.15442001948835</v>
-      </c>
-      <c r="F32" t="n">
-        <v>4086</v>
-      </c>
-      <c r="G32" t="n">
-        <v>3700</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2992</v>
-      </c>
-      <c r="I32" t="n">
-        <v>-26.77435144395497</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Deaths_Public</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>-7.278750748837015</v>
-      </c>
-      <c r="D33" t="n">
-        <v>-8.052033118227019</v>
-      </c>
-      <c r="E33" t="n">
-        <v>-6.498965074990293</v>
-      </c>
-      <c r="F33" t="n">
-        <v>29399</v>
-      </c>
-      <c r="G33" t="n">
-        <v>27739</v>
-      </c>
-      <c r="H33" t="n">
-        <v>25252</v>
-      </c>
-      <c r="I33" t="n">
-        <v>-14.10592197013504</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Deaths_Private</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>-13.09627740070752</v>
-      </c>
-      <c r="D34" t="n">
-        <v>-16.17931840270024</v>
-      </c>
-      <c r="E34" t="n">
-        <v>-9.899837871778061</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1739</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1398</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1323</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-23.92179413456009</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Deaths_ONG</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>-13.48176178666355</v>
-      </c>
-      <c r="D35" t="n">
-        <v>-14.25911669231074</v>
-      </c>
-      <c r="E35" t="n">
-        <v>-12.69735912706257</v>
-      </c>
-      <c r="F35" t="n">
-        <v>27890</v>
-      </c>
-      <c r="G35" t="n">
-        <v>22578</v>
-      </c>
-      <c r="H35" t="n">
-        <v>21013</v>
-      </c>
-      <c r="I35" t="n">
-        <v>-24.65758336321262</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Admissions_uti</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>-1.518104767333073</v>
-      </c>
-      <c r="D36" t="n">
-        <v>-2.411281796468723</v>
-      </c>
-      <c r="E36" t="n">
-        <v>-0.6167529694325435</v>
-      </c>
-      <c r="F36" t="n">
-        <v>22602</v>
-      </c>
-      <c r="G36" t="n">
-        <v>24930</v>
-      </c>
-      <c r="H36" t="n">
-        <v>21894</v>
-      </c>
-      <c r="I36" t="n">
-        <v>-3.132466153437749</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Admissions_uti_S</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>-11.71309013581426</v>
-      </c>
-      <c r="D37" t="n">
-        <v>-13.49506029576882</v>
-      </c>
-      <c r="E37" t="n">
-        <v>-9.894412041470913</v>
-      </c>
-      <c r="F37" t="n">
-        <v>5139</v>
-      </c>
-      <c r="G37" t="n">
-        <v>4846</v>
-      </c>
-      <c r="H37" t="n">
-        <v>3982</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-22.51410780307453</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Admissions_uti_N</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>-2.457213257418811</v>
-      </c>
-      <c r="D38" t="n">
-        <v>-6.758515562551937</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2.04251147343788</v>
-      </c>
-      <c r="F38" t="n">
-        <v>953</v>
-      </c>
-      <c r="G38" t="n">
-        <v>975</v>
-      </c>
-      <c r="H38" t="n">
-        <v>906</v>
-      </c>
-      <c r="I38" t="n">
-        <v>-4.931794333683106</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Admissions_uti_NE</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0.6720793300621919</v>
-      </c>
-      <c r="D39" t="n">
-        <v>-1.608674069927141</v>
-      </c>
-      <c r="E39" t="n">
-        <v>3.005701578218711</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3648</v>
-      </c>
-      <c r="G39" t="n">
-        <v>3628</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3697</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1.343201754385965</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Admissions_uti_SE</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>4.735966603847519</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3.392345108759942</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.097048953703021</v>
-      </c>
-      <c r="F40" t="n">
-        <v>10341</v>
-      </c>
-      <c r="G40" t="n">
-        <v>12852</v>
-      </c>
-      <c r="H40" t="n">
-        <v>11408</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10.31815104922154</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Admissions_uti_CO</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>-12.39047885272905</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-14.87016086674658</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-9.838568076702259</v>
-      </c>
-      <c r="F41" t="n">
-        <v>2521</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2629</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1901</v>
-      </c>
-      <c r="I41" t="n">
-        <v>-24.59341531138437</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>-22.72140278834298</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-22.93659209094569</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-22.50561259827355</v>
-      </c>
-      <c r="F42" t="n">
-        <v>330989</v>
-      </c>
-      <c r="G42" t="n">
-        <v>234100</v>
-      </c>
-      <c r="H42" t="n">
-        <v>200816</v>
-      </c>
-      <c r="I42" t="n">
-        <v>-39.32849732166326</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_S</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>-29.48917261931406</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-29.92424090038178</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-29.05140319862798</v>
-      </c>
-      <c r="F43" t="n">
-        <v>75264</v>
-      </c>
-      <c r="G43" t="n">
-        <v>45702</v>
-      </c>
-      <c r="H43" t="n">
-        <v>38789</v>
-      </c>
-      <c r="I43" t="n">
-        <v>-48.46274447278912</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_N</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>-18.86701301675281</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-19.67455216664242</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-18.05135540009837</v>
-      </c>
-      <c r="F44" t="n">
-        <v>24278</v>
-      </c>
-      <c r="G44" t="n">
-        <v>18440</v>
-      </c>
-      <c r="H44" t="n">
-        <v>16134</v>
-      </c>
-      <c r="I44" t="n">
-        <v>-33.54477304555565</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_NE</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>-23.45225488818079</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-23.88501403388312</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-23.01703524832198</v>
-      </c>
-      <c r="F45" t="n">
-        <v>83139</v>
-      </c>
-      <c r="G45" t="n">
-        <v>52158</v>
-      </c>
-      <c r="H45" t="n">
-        <v>50435</v>
-      </c>
-      <c r="I45" t="n">
-        <v>-39.33653279447672</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_SE</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>-18.36083853726742</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-18.71867979773174</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-18.00142187956088</v>
-      </c>
-      <c r="F46" t="n">
-        <v>123371</v>
-      </c>
-      <c r="G46" t="n">
-        <v>98981</v>
-      </c>
-      <c r="H46" t="n">
-        <v>82432</v>
-      </c>
-      <c r="I46" t="n">
-        <v>-33.18364931791102</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Admissions_non_uti_CO</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>-27.38461244284944</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-28.13100675098148</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-26.63046646827511</v>
-      </c>
-      <c r="F47" t="n">
-        <v>24937</v>
-      </c>
-      <c r="G47" t="n">
-        <v>18819</v>
-      </c>
-      <c r="H47" t="n">
-        <v>13026</v>
-      </c>
-      <c r="I47" t="n">
         <v>-47.76436620283113</v>
       </c>
     </row>

--- a/tables/table_overview_2019_2021.xlsx
+++ b/tables/table_overview_2019_2021.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,254 @@
         <v>-47.76436620283113</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Admissions_eld</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-23.3918064291519</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-23.64087211592295</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-23.14192834813216</v>
+      </c>
+      <c r="F26" t="n">
+        <v>246136</v>
+      </c>
+      <c r="G26" t="n">
+        <v>169402</v>
+      </c>
+      <c r="H26" t="n">
+        <v>147314</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-40.14934832775376</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Admissions_non_eld</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-16.25632106201723</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-16.64355958483086</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-15.86728359394149</v>
+      </c>
+      <c r="F27" t="n">
+        <v>107455</v>
+      </c>
+      <c r="G27" t="n">
+        <v>89628</v>
+      </c>
+      <c r="H27" t="n">
+        <v>75396</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-29.83481457354241</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Admissions_uti_eld</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-4.255397002338013</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.312155718430278</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-3.186844386062371</v>
+      </c>
+      <c r="F28" t="n">
+        <v>15747</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16686</v>
+      </c>
+      <c r="H28" t="n">
+        <v>14390</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-8.617514447196291</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Admissions_uti_non_eld</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>4.402436423497003</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.747967374614246</v>
+      </c>
+      <c r="E29" t="n">
+        <v>6.08354607563113</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6855</v>
+      </c>
+      <c r="G29" t="n">
+        <v>8244</v>
+      </c>
+      <c r="H29" t="n">
+        <v>7504</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9.467541940189642</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Admissions_non_uti_eld</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-24.96317288138551</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-25.2186574591482</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-24.70681546064813</v>
+      </c>
+      <c r="F30" t="n">
+        <v>230389</v>
+      </c>
+      <c r="G30" t="n">
+        <v>152716</v>
+      </c>
+      <c r="H30" t="n">
+        <v>132924</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-42.30453710897656</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Admissions_non_uti_non_eld</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-17.93190964976411</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-18.32889565371637</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-17.53299398061882</v>
+      </c>
+      <c r="F31" t="n">
+        <v>100600</v>
+      </c>
+      <c r="G31" t="n">
+        <v>81384</v>
+      </c>
+      <c r="H31" t="n">
+        <v>67892</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-32.51292246520875</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Deaths_eld</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>-11.50267438425282</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-12.08411280793379</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-10.91739057322116</v>
+      </c>
+      <c r="F32" t="n">
+        <v>50437</v>
+      </c>
+      <c r="G32" t="n">
+        <v>43586</v>
+      </c>
+      <c r="H32" t="n">
+        <v>39580</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-21.525863949085</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Deaths_non_eld</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.614763784128404</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.04817946983721</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.159934429385656</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8900</v>
+      </c>
+      <c r="G33" t="n">
+        <v>8878</v>
+      </c>
+      <c r="H33" t="n">
+        <v>8437</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-5.202247191011236</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tables/table_overview_2019_2021.xlsx
+++ b/tables/table_overview_2019_2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t xml:space="preserve">Analise</t>
   </si>
@@ -61,6 +61,12 @@
     <t xml:space="preserve">Admissions_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_uti_20_49</t>
   </si>
   <si>
@@ -73,6 +79,12 @@
     <t xml:space="preserve">Admissions_uti_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_uti_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Admissions_non_uti_20_49</t>
   </si>
   <si>
@@ -85,6 +97,12 @@
     <t xml:space="preserve">Admissions_non_uti_70_up</t>
   </si>
   <si>
+    <t xml:space="preserve">Admissions_non_uti_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions_non_uti_elderly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mortes_20_49</t>
   </si>
   <si>
@@ -95,6 +113,12 @@
   </si>
   <si>
     <t xml:space="preserve">Mortes_70_up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_non_elderly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortes_elderly</t>
   </si>
 </sst>
 </file>
@@ -220,16 +244,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="2" sqref="D9:J9 D13:J13 D17:J17"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="8.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.76"/>
@@ -511,26 +535,26 @@
         <v>13</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>3960</v>
+        <v>107455</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>4757</v>
+        <v>89628</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4259</v>
+        <v>75396</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>7.55050505050505</v>
+        <v>-29.8348145735424</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="n">
-        <v>3.51752069046314</v>
+        <v>-16.2563210620172</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>1.35829717506295</v>
+        <v>-16.6435595848309</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>5.72274188261399</v>
+        <v>-15.8672835939415</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,26 +565,26 @@
         <v>14</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>2895</v>
+        <v>246136</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3487</v>
+        <v>169402</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>3245</v>
+        <v>147314</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>12.0898100172712</v>
+        <v>-40.1493483277538</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="n">
-        <v>5.60770810701978</v>
+        <v>-23.3918064291519</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>3.05347085888417</v>
+        <v>-23.6408721159229</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>8.22525353745525</v>
+        <v>-23.1419283481322</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -571,26 +595,26 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>4596</v>
+        <v>3960</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>5208</v>
+        <v>4757</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>4520</v>
+        <v>4259</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>-1.65361183637946</v>
+        <v>7.55050505050505</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="n">
-        <v>-0.792716774603352</v>
+        <v>3.51752069046314</v>
       </c>
       <c r="I12" s="3" t="n">
-        <v>-2.76270623099625</v>
+        <v>1.35829717506295</v>
       </c>
       <c r="J12" s="3" t="n">
-        <v>1.21718389597365</v>
+        <v>5.72274188261399</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -601,26 +625,26 @@
         <v>16</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>11151</v>
+        <v>2895</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>11478</v>
+        <v>3487</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>9870</v>
+        <v>3245</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>-11.4877589453861</v>
+        <v>12.0898100172712</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="n">
-        <v>-5.74434655756158</v>
+        <v>5.60770810701978</v>
       </c>
       <c r="I13" s="3" t="n">
-        <v>-6.9921758712813</v>
+        <v>3.05347085888417</v>
       </c>
       <c r="J13" s="3" t="n">
-        <v>-4.47977587814745</v>
+        <v>8.22525353745525</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -631,26 +655,26 @@
         <v>17</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>63123</v>
+        <v>4596</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>52229</v>
+        <v>5208</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>43100</v>
+        <v>4520</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>-31.7206089697891</v>
+        <v>-1.65361183637946</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="n">
-        <v>-17.3616447865753</v>
+        <v>-0.792716774603352</v>
       </c>
       <c r="I14" s="3" t="n">
-        <v>-17.8629915561025</v>
+        <v>-2.76270623099625</v>
       </c>
       <c r="J14" s="3" t="n">
-        <v>-16.8572379033664</v>
+        <v>1.21718389597365</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -661,26 +685,26 @@
         <v>18</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>37477</v>
+        <v>11151</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>29155</v>
+        <v>11478</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>24792</v>
+        <v>9870</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>-33.8474264215385</v>
+        <v>-11.4877589453861</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="n">
-        <v>-18.9127856330074</v>
+        <v>-5.74434655756158</v>
       </c>
       <c r="I15" s="3" t="n">
-        <v>-19.5610065596969</v>
+        <v>-6.9921758712813</v>
       </c>
       <c r="J15" s="3" t="n">
-        <v>-18.2593409914026</v>
+        <v>-4.47977587814745</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -691,26 +715,26 @@
         <v>19</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>55114</v>
+        <v>6855</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>39484</v>
+        <v>8244</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>33612</v>
+        <v>7504</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>-39.0136807344776</v>
+        <v>9.46754194018964</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="n">
-        <v>-22.4514328666272</v>
+        <v>4.402436423497</v>
       </c>
       <c r="I16" s="3" t="n">
-        <v>-22.9779318650885</v>
+        <v>2.74796737461425</v>
       </c>
       <c r="J16" s="3" t="n">
-        <v>-21.9213348841073</v>
+        <v>6.08354607563113</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -721,26 +745,26 @@
         <v>20</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>175275</v>
+        <v>15747</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>113232</v>
+        <v>16686</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>99312</v>
+        <v>14390</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>-43.339323919555</v>
+        <v>-8.61751444719629</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="n">
-        <v>-25.780403022021</v>
+        <v>-4.25539700233801</v>
       </c>
       <c r="I17" s="3" t="n">
-        <v>-26.0722796416208</v>
+        <v>-5.31215571843028</v>
       </c>
       <c r="J17" s="3" t="n">
-        <v>-25.487374034126</v>
+        <v>-3.18684438606237</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,26 +775,26 @@
         <v>21</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>4217</v>
+        <v>63123</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>4320</v>
+        <v>52229</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>4042</v>
+        <v>43100</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>-4.14986957552763</v>
+        <v>-31.7206089697891</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="n">
-        <v>-2.06533646778263</v>
+        <v>-17.3616447865753</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>-4.13936443091024</v>
+        <v>-17.8629915561025</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.0535648885402029</v>
+        <v>-16.8572379033664</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -781,26 +805,26 @@
         <v>22</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>4683</v>
+        <v>37477</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>4558</v>
+        <v>29155</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>4395</v>
+        <v>24792</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>-6.14990390775144</v>
+        <v>-33.8474264215385</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="n">
-        <v>-3.11894004340117</v>
+        <v>-18.9127856330074</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>-5.09064003337653</v>
+        <v>-19.5610065596969</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>-1.10627885790374</v>
+        <v>-18.2593409914026</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -811,26 +835,26 @@
         <v>23</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>8871</v>
+        <v>55114</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>8844</v>
+        <v>39484</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>7830</v>
+        <v>33612</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>-11.7348664186676</v>
+        <v>-39.0136807344776</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="n">
-        <v>-5.93324820686615</v>
+        <v>-22.4514328666272</v>
       </c>
       <c r="I20" s="3" t="n">
-        <v>-7.33678120571405</v>
+        <v>-22.9779318650885</v>
       </c>
       <c r="J20" s="3" t="n">
-        <v>-4.50845645071965</v>
+        <v>-21.9213348841073</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,26 +865,428 @@
         <v>24</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>41566</v>
+        <v>175275</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>34742</v>
+        <v>113232</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>31750</v>
+        <v>99312</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>-23.6154549391329</v>
+        <v>-43.339323919555</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="n">
+        <v>-25.780403022021</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>-26.0722796416208</v>
+      </c>
+      <c r="J21" s="3" t="n">
+        <v>-25.487374034126</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>100600</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>81384</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>67892</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>-32.5129224652088</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="n">
+        <v>-17.9319096497641</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>-18.3288956537164</v>
+      </c>
+      <c r="J22" s="3" t="n">
+        <v>-17.5329939806188</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>230389</v>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>152716</v>
+      </c>
+      <c r="E23" s="2" t="n">
+        <v>132924</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>-42.3045371089766</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="n">
+        <v>-24.9631728813855</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>-25.2186574591482</v>
+      </c>
+      <c r="J23" s="3" t="n">
+        <v>-24.7068154606481</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>4217</v>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>4320</v>
+      </c>
+      <c r="E24" s="2" t="n">
+        <v>4042</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>-4.14986957552763</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="n">
+        <v>-2.06533646778263</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>-4.13936443091024</v>
+      </c>
+      <c r="J24" s="3" t="n">
+        <v>0.0535648885402029</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>4683</v>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>4558</v>
+      </c>
+      <c r="E25" s="2" t="n">
+        <v>4395</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>-6.14990390775144</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="n">
+        <v>-3.11894004340117</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>-5.09064003337653</v>
+      </c>
+      <c r="J25" s="3" t="n">
+        <v>-1.10627885790374</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>8871</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>8844</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>7830</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>-11.7348664186676</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="n">
+        <v>-5.93324820686615</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>-7.33678120571405</v>
+      </c>
+      <c r="J26" s="3" t="n">
+        <v>-4.50845645071965</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>41566</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>34742</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>31750</v>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>-23.6154549391329</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="n">
         <v>-12.7754224001334</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I27" s="3" t="n">
         <v>-13.4130046748653</v>
       </c>
-      <c r="J21" s="3" t="n">
+      <c r="J27" s="3" t="n">
         <v>-12.133145296166</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>8900</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>8878</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>8437</v>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>-5.20224719101124</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3" t="n">
+        <v>-2.6147637841284</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>-4.04817946983721</v>
+      </c>
+      <c r="J28" s="3" t="n">
+        <v>-1.15993442938566</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>50437</v>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>43586</v>
+      </c>
+      <c r="E29" s="2" t="n">
+        <v>39580</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>-21.525863949085</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="n">
+        <v>-11.5026743842528</v>
+      </c>
+      <c r="I29" s="3" t="n">
+        <v>-12.0841128079338</v>
+      </c>
+      <c r="J29" s="3" t="n">
+        <v>-10.9173905732212</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>107455</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>89628</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>75396</v>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>-29.8348145735424</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="n">
+        <v>-16.2563210620172</v>
+      </c>
+      <c r="I32" s="3" t="n">
+        <v>-16.6435595848309</v>
+      </c>
+      <c r="J32" s="3" t="n">
+        <v>-15.8672835939415</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>6855</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>8244</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>7504</v>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>9.46754194018964</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3" t="n">
+        <v>4.402436423497</v>
+      </c>
+      <c r="I33" s="3" t="n">
+        <v>2.74796737461425</v>
+      </c>
+      <c r="J33" s="3" t="n">
+        <v>6.08354607563113</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>100600</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>81384</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>67892</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>-32.5129224652088</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3" t="n">
+        <v>-17.9319096497641</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>-18.3288956537164</v>
+      </c>
+      <c r="J34" s="3" t="n">
+        <v>-17.5329939806188</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>246136</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>169402</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>147314</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>-40.1493483277538</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="n">
+        <v>-23.3918064291519</v>
+      </c>
+      <c r="I35" s="3" t="n">
+        <v>-23.6408721159229</v>
+      </c>
+      <c r="J35" s="3" t="n">
+        <v>-23.1419283481322</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>15747</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>16686</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>14390</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>-8.61751444719629</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="n">
+        <v>-4.25539700233801</v>
+      </c>
+      <c r="I36" s="3" t="n">
+        <v>-5.31215571843028</v>
+      </c>
+      <c r="J36" s="3" t="n">
+        <v>-3.18684438606237</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>230389</v>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>152716</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>132924</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>-42.3045371089766</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="n">
+        <v>-24.9631728813855</v>
+      </c>
+      <c r="I37" s="3" t="n">
+        <v>-25.2186574591482</v>
+      </c>
+      <c r="J37" s="3" t="n">
+        <v>-24.7068154606481</v>
       </c>
     </row>
   </sheetData>
